--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N2">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O2">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P2">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q2">
-        <v>50.93020199992876</v>
+        <v>48.606424312383</v>
       </c>
       <c r="R2">
-        <v>203.720807999715</v>
+        <v>194.425697249532</v>
       </c>
       <c r="S2">
-        <v>0.009124001909081829</v>
+        <v>0.007274885452763984</v>
       </c>
       <c r="T2">
-        <v>0.004832100196580805</v>
+        <v>0.003772576294969348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O3">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P3">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q3">
-        <v>105.781102731777</v>
+        <v>70.227534079406</v>
       </c>
       <c r="R3">
-        <v>634.6866163906622</v>
+        <v>421.365204476436</v>
       </c>
       <c r="S3">
-        <v>0.0189503859276047</v>
+        <v>0.01051090001548625</v>
       </c>
       <c r="T3">
-        <v>0.01505427626142546</v>
+        <v>0.008176040535899589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N4">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O4">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P4">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q4">
-        <v>11.1515878393615</v>
+        <v>13.482056130912</v>
       </c>
       <c r="R4">
-        <v>66.90952703616901</v>
+        <v>80.892336785472</v>
       </c>
       <c r="S4">
-        <v>0.001997775479778587</v>
+        <v>0.002017848780436462</v>
       </c>
       <c r="T4">
-        <v>0.001587042295380319</v>
+        <v>0.001569609966782739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N5">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O5">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P5">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q5">
-        <v>74.80679249147626</v>
+        <v>20.8130837100965</v>
       </c>
       <c r="R5">
-        <v>299.227169965905</v>
+        <v>83.25233484038598</v>
       </c>
       <c r="S5">
-        <v>0.01340142569050624</v>
+        <v>0.003115077935719828</v>
       </c>
       <c r="T5">
-        <v>0.007097437326169401</v>
+        <v>0.001615402641537637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N6">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O6">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P6">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q6">
-        <v>35.830222448067</v>
+        <v>18.69148063360567</v>
       </c>
       <c r="R6">
-        <v>214.981334688402</v>
+        <v>112.148883801634</v>
       </c>
       <c r="S6">
-        <v>0.006418883200570208</v>
+        <v>0.002797539265141865</v>
       </c>
       <c r="T6">
-        <v>0.005099191191164351</v>
+        <v>0.002176102369813334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N7">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O7">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P7">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q7">
-        <v>32.2988412641795</v>
+        <v>5.335763790005333</v>
       </c>
       <c r="R7">
-        <v>193.793047585077</v>
+        <v>32.014582740032</v>
       </c>
       <c r="S7">
-        <v>0.005786246230790856</v>
+        <v>0.000798599586874066</v>
       </c>
       <c r="T7">
-        <v>0.004596621388489455</v>
+        <v>0.0006212010945413764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N8">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O8">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P8">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q8">
-        <v>438.0888690469666</v>
+        <v>629.7688344334799</v>
       </c>
       <c r="R8">
-        <v>2628.5332142818</v>
+        <v>3778.61300660088</v>
       </c>
       <c r="S8">
-        <v>0.07848238413697269</v>
+        <v>0.09425700814320279</v>
       </c>
       <c r="T8">
-        <v>0.06234677736732729</v>
+        <v>0.07331904196938478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O9">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P9">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q9">
         <v>909.9026087186934</v>
@@ -1013,10 +1013,10 @@
         <v>8189.12347846824</v>
       </c>
       <c r="S9">
-        <v>0.1630064836389125</v>
+        <v>0.1361844107078918</v>
       </c>
       <c r="T9">
-        <v>0.1942396830184682</v>
+        <v>0.1588992275635035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N10">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O10">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P10">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q10">
-        <v>95.92317157176446</v>
+        <v>174.68017644672</v>
       </c>
       <c r="R10">
-        <v>863.3085441458801</v>
+        <v>1572.12158802048</v>
       </c>
       <c r="S10">
-        <v>0.01718436538985624</v>
+        <v>0.0261442451794329</v>
       </c>
       <c r="T10">
-        <v>0.02047701178312149</v>
+        <v>0.03050496266531922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N11">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O11">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P11">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q11">
-        <v>643.4693331801</v>
+        <v>269.6645897018733</v>
       </c>
       <c r="R11">
-        <v>3860.8159990806</v>
+        <v>1617.98753821124</v>
       </c>
       <c r="S11">
-        <v>0.1152757144842869</v>
+        <v>0.04036048790875454</v>
       </c>
       <c r="T11">
-        <v>0.09157557311546582</v>
+        <v>0.03139493142399533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N12">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O12">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P12">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q12">
-        <v>308.2026187525599</v>
+        <v>242.1760526306178</v>
       </c>
       <c r="R12">
-        <v>2773.823568773039</v>
+        <v>2179.58447367556</v>
       </c>
       <c r="S12">
-        <v>0.05521362907389038</v>
+        <v>0.03624630009744306</v>
       </c>
       <c r="T12">
-        <v>0.06579295234273477</v>
+        <v>0.04229198523957693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N13">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O13">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P13">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q13">
-        <v>277.8265603771155</v>
+        <v>69.13279037454222</v>
       </c>
       <c r="R13">
-        <v>2500.43904339404</v>
+        <v>622.19511337088</v>
       </c>
       <c r="S13">
-        <v>0.0497718439694778</v>
+        <v>0.01034705058270686</v>
       </c>
       <c r="T13">
-        <v>0.05930848258337734</v>
+        <v>0.01207288217943833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N14">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O14">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P14">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q14">
-        <v>304.8547607753583</v>
+        <v>690.33996453366</v>
       </c>
       <c r="R14">
-        <v>1829.12856465215</v>
+        <v>4142.039787201959</v>
       </c>
       <c r="S14">
-        <v>0.0546138697684911</v>
+        <v>0.1033226417391103</v>
       </c>
       <c r="T14">
-        <v>0.04338551659798828</v>
+        <v>0.08037086318874245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O15">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P15">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q15">
-        <v>633.1777904178467</v>
+        <v>997.41698904012</v>
       </c>
       <c r="R15">
-        <v>5698.600113760621</v>
+        <v>8976.75290136108</v>
       </c>
       <c r="S15">
-        <v>0.1134320136521102</v>
+        <v>0.1492826194594005</v>
       </c>
       <c r="T15">
-        <v>0.1351663926739217</v>
+        <v>0.1741821460874491</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N16">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O16">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P16">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q16">
-        <v>66.75046454829889</v>
+        <v>191.48090572224</v>
       </c>
       <c r="R16">
-        <v>600.7541809346901</v>
+        <v>1723.32815150016</v>
       </c>
       <c r="S16">
-        <v>0.01195815728301313</v>
+        <v>0.02865879716986123</v>
       </c>
       <c r="T16">
-        <v>0.0142494251043581</v>
+        <v>0.03343892821152528</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N17">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O17">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P17">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q17">
-        <v>447.773736090675</v>
+        <v>295.60091435493</v>
       </c>
       <c r="R17">
-        <v>2686.64241654405</v>
+        <v>1773.60548612958</v>
       </c>
       <c r="S17">
-        <v>0.08021740072685626</v>
+        <v>0.0442423573033032</v>
       </c>
       <c r="T17">
-        <v>0.06372508275709858</v>
+        <v>0.03441449411397775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N18">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O18">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P18">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q18">
-        <v>214.47026447978</v>
+        <v>265.46853137678</v>
       </c>
       <c r="R18">
-        <v>1930.23238031802</v>
+        <v>2389.21678239102</v>
       </c>
       <c r="S18">
-        <v>0.03842174241833038</v>
+        <v>0.03973246714606713</v>
       </c>
       <c r="T18">
-        <v>0.04578362100544184</v>
+        <v>0.04635962593577891</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N19">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O19">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P19">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q19">
-        <v>193.3323478066411</v>
+        <v>75.78197815743999</v>
       </c>
       <c r="R19">
-        <v>1739.99113025977</v>
+        <v>682.0378034169599</v>
       </c>
       <c r="S19">
-        <v>0.03463494432002318</v>
+        <v>0.01134222930977433</v>
       </c>
       <c r="T19">
-        <v>0.04127124551061496</v>
+        <v>0.0132340512897401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N20">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O20">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P20">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q20">
-        <v>31.3600095107675</v>
+        <v>29.409118908246</v>
       </c>
       <c r="R20">
-        <v>125.44003804307</v>
+        <v>117.636475632984</v>
       </c>
       <c r="S20">
-        <v>0.005618057172548957</v>
+        <v>0.004401639790436089</v>
       </c>
       <c r="T20">
-        <v>0.002975340803124392</v>
+        <v>0.002282581910081349</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O21">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P21">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q21">
-        <v>65.134169067946</v>
+        <v>42.49088324417201</v>
       </c>
       <c r="R21">
-        <v>390.805014407676</v>
+        <v>254.945299465032</v>
       </c>
       <c r="S21">
-        <v>0.01166860251061304</v>
+        <v>0.00635957721147098</v>
       </c>
       <c r="T21">
-        <v>0.009269593054759221</v>
+        <v>0.004946880000338828</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N22">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O22">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P22">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q22">
-        <v>6.866532763860333</v>
+        <v>8.157263108544001</v>
       </c>
       <c r="R22">
-        <v>41.199196583162</v>
+        <v>48.943578651264</v>
       </c>
       <c r="S22">
-        <v>0.001230119959986066</v>
+        <v>0.001220891179761124</v>
       </c>
       <c r="T22">
-        <v>0.000977213117615098</v>
+        <v>0.0009496861126014088</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N23">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O23">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P23">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q23">
-        <v>46.06189710392249</v>
+        <v>12.592871463733</v>
       </c>
       <c r="R23">
-        <v>184.24758841569</v>
+        <v>50.371485854932</v>
       </c>
       <c r="S23">
-        <v>0.008251858830497226</v>
+        <v>0.001884765207810171</v>
       </c>
       <c r="T23">
-        <v>0.004370210470617414</v>
+        <v>0.0009773927838088684</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N24">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O24">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P24">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q24">
-        <v>22.06227489036599</v>
+        <v>11.30920417005133</v>
       </c>
       <c r="R24">
-        <v>132.373649342196</v>
+        <v>67.855225020308</v>
       </c>
       <c r="S24">
-        <v>0.003952394263401293</v>
+        <v>0.001692639729478811</v>
       </c>
       <c r="T24">
-        <v>0.00313980070710027</v>
+        <v>0.001316641868964886</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N25">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O25">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P25">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q25">
-        <v>19.88784511855766</v>
+        <v>3.228382132330667</v>
       </c>
       <c r="R25">
-        <v>119.327070711346</v>
+        <v>19.370292793984</v>
       </c>
       <c r="S25">
-        <v>0.003562851308335625</v>
+        <v>0.0004831894249104888</v>
       </c>
       <c r="T25">
-        <v>0.002830345940128575</v>
+        <v>0.0003758551902087909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N26">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O26">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P26">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q26">
-        <v>28.5465463117525</v>
+        <v>78.19175915079899</v>
       </c>
       <c r="R26">
-        <v>171.279277870515</v>
+        <v>469.1505549047939</v>
       </c>
       <c r="S26">
-        <v>0.005114033183031298</v>
+        <v>0.01170289934343629</v>
       </c>
       <c r="T26">
-        <v>0.004062612162177815</v>
+        <v>0.009103252745103896</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O27">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P27">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q27">
-        <v>59.290657202678</v>
+        <v>112.9730176241847</v>
       </c>
       <c r="R27">
-        <v>533.615914824102</v>
+        <v>1016.757158617662</v>
       </c>
       <c r="S27">
-        <v>0.01062175385655661</v>
+        <v>0.01690858305451716</v>
       </c>
       <c r="T27">
-        <v>0.01265695729482771</v>
+        <v>0.0197288424760972</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N28">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O28">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P28">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q28">
-        <v>6.250501788827666</v>
+        <v>21.688196586336</v>
       </c>
       <c r="R28">
-        <v>56.254516099449</v>
+        <v>195.193769277024</v>
       </c>
       <c r="S28">
-        <v>0.001119759749903658</v>
+        <v>0.003246055394418827</v>
       </c>
       <c r="T28">
-        <v>0.001334313666687822</v>
+        <v>0.003787479727821779</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N29">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O29">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P29">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q29">
-        <v>41.9294540849175</v>
+        <v>33.48141015653116</v>
       </c>
       <c r="R29">
-        <v>251.576724509505</v>
+        <v>200.888460939187</v>
       </c>
       <c r="S29">
-        <v>0.007511543329792434</v>
+        <v>0.005011136431686047</v>
       </c>
       <c r="T29">
-        <v>0.005967205568707711</v>
+        <v>0.003897977769365448</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N30">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O30">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P30">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q30">
-        <v>20.08295793673799</v>
+        <v>30.06844820515589</v>
       </c>
       <c r="R30">
-        <v>180.746621430642</v>
+        <v>270.616033846403</v>
       </c>
       <c r="S30">
-        <v>0.003597805218896714</v>
+        <v>0.004500321089843023</v>
       </c>
       <c r="T30">
-        <v>0.004287170238140538</v>
+        <v>0.00525095009955028</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N31">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O31">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P31">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q31">
-        <v>18.10360712814633</v>
+        <v>8.58349000272711</v>
       </c>
       <c r="R31">
-        <v>162.932464153317</v>
+        <v>77.25141002454399</v>
       </c>
       <c r="S31">
-        <v>0.00324321010937097</v>
+        <v>0.001284684225144212</v>
       </c>
       <c r="T31">
-        <v>0.003864632188508398</v>
+        <v>0.001498962546280665</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.2502825</v>
+        <v>1.797327</v>
       </c>
       <c r="N32">
-        <v>2.500565</v>
+        <v>3.594654</v>
       </c>
       <c r="O32">
-        <v>0.1638687485091313</v>
+        <v>0.2743702177610106</v>
       </c>
       <c r="P32">
-        <v>0.1262743888059313</v>
+        <v>0.2103948698744895</v>
       </c>
       <c r="Q32">
-        <v>60.935385785555</v>
+        <v>356.86124691861</v>
       </c>
       <c r="R32">
-        <v>365.61231471333</v>
+        <v>2141.16748151166</v>
       </c>
       <c r="S32">
-        <v>0.01091640233900544</v>
+        <v>0.05341114329206113</v>
       </c>
       <c r="T32">
-        <v>0.00867204167873277</v>
+        <v>0.04154655376620773</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.790442000000001</v>
       </c>
       <c r="O33">
-        <v>0.3403524085884521</v>
+        <v>0.3964155786147101</v>
       </c>
       <c r="P33">
-        <v>0.3934044114342388</v>
+        <v>0.4559740745158667</v>
       </c>
       <c r="Q33">
-        <v>126.561687381316</v>
+        <v>515.6002675393534</v>
       </c>
       <c r="R33">
-        <v>1139.055186431844</v>
+        <v>4640.40240785418</v>
       </c>
       <c r="S33">
-        <v>0.02267316900265505</v>
+        <v>0.07716948816594334</v>
       </c>
       <c r="T33">
-        <v>0.02701750913083655</v>
+        <v>0.09004093785257855</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2737596666666667</v>
+        <v>0.498528</v>
       </c>
       <c r="N34">
-        <v>0.8212790000000001</v>
+        <v>1.495584</v>
       </c>
       <c r="O34">
-        <v>0.03588041420154535</v>
+        <v>0.07610258785405276</v>
       </c>
       <c r="P34">
-        <v>0.04147322855600494</v>
+        <v>0.08753643634863567</v>
       </c>
       <c r="Q34">
-        <v>13.34230535967533</v>
+        <v>98.98328111904</v>
       </c>
       <c r="R34">
-        <v>120.080748237078</v>
+        <v>890.8495300713599</v>
       </c>
       <c r="S34">
-        <v>0.002390236339007663</v>
+        <v>0.01481475015014221</v>
       </c>
       <c r="T34">
-        <v>0.00284822258884211</v>
+        <v>0.01728576966458525</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.8364275</v>
+        <v>0.7696084999999999</v>
       </c>
       <c r="N35">
-        <v>3.672855</v>
+        <v>1.539217</v>
       </c>
       <c r="O35">
-        <v>0.2406920645156217</v>
+        <v>0.1174842706617798</v>
       </c>
       <c r="P35">
-        <v>0.1854730912005122</v>
+        <v>0.09009027306205331</v>
       </c>
       <c r="Q35">
-        <v>89.50250697718499</v>
+        <v>152.8066116789883</v>
       </c>
       <c r="R35">
-        <v>537.01504186311</v>
+        <v>916.8396700739298</v>
       </c>
       <c r="S35">
-        <v>0.01603412145368259</v>
+        <v>0.02287044587450599</v>
       </c>
       <c r="T35">
-        <v>0.0127375819624533</v>
+        <v>0.01779007432936827</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8795939999999999</v>
+        <v>0.6911576666666667</v>
       </c>
       <c r="N36">
-        <v>2.638782</v>
+        <v>2.073473</v>
       </c>
       <c r="O36">
-        <v>0.1152843201245645</v>
+        <v>0.105508390799518</v>
       </c>
       <c r="P36">
-        <v>0.1332541182661091</v>
+        <v>0.1213602427447169</v>
       </c>
       <c r="Q36">
-        <v>42.869031378636</v>
+        <v>137.2301126862411</v>
       </c>
       <c r="R36">
-        <v>385.8212824077239</v>
+        <v>1235.07101417617</v>
       </c>
       <c r="S36">
-        <v>0.007679865949475535</v>
+        <v>0.02053912347154411</v>
       </c>
       <c r="T36">
-        <v>0.009151382781527299</v>
+        <v>0.02396493723103254</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7929023333333333</v>
+        <v>0.1973013333333333</v>
       </c>
       <c r="N37">
-        <v>2.378707</v>
+        <v>0.591904</v>
       </c>
       <c r="O37">
-        <v>0.103922044060685</v>
+        <v>0.03011895430892898</v>
       </c>
       <c r="P37">
-        <v>0.1201207617372036</v>
+        <v>0.03464410345423784</v>
       </c>
       <c r="Q37">
-        <v>38.64391413295266</v>
+        <v>39.17439610712889</v>
       </c>
       <c r="R37">
-        <v>347.795227196574</v>
+        <v>352.56956496416</v>
       </c>
       <c r="S37">
-        <v>0.006922948122686566</v>
+        <v>0.00586320117951902</v>
       </c>
       <c r="T37">
-        <v>0.00824943412608486</v>
+        <v>0.006841151154028571</v>
       </c>
     </row>
   </sheetData>
